--- a/workbooks/QAtestCases.xlsx
+++ b/workbooks/QAtestCases.xlsx
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -815,9 +815,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,9 +862,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,9 +879,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,9 +904,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,9 +913,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,9 +935,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,8 +1268,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,970 +1333,970 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="12">
         <f>IF(AND(H3&lt;&gt;"",I3&lt;&gt;"",LEFT(H3,1)&lt;&gt;"#"),MAX($A$1:A2)+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="B3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="12">
         <f>IF(AND(H4&lt;&gt;"",I4&lt;&gt;"",LEFT(H4,1)&lt;&gt;"#"),MAX($A$1:A3)+1,"")</f>
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41" t="s">
+      <c r="B4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="12">
         <f>IF(AND(H5&lt;&gt;"",I5&lt;&gt;"",LEFT(H5,1)&lt;&gt;"#"),MAX($A$1:A4)+1,"")</f>
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="B5" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="12">
         <f>IF(AND(H6&lt;&gt;"",I6&lt;&gt;"",LEFT(H6,1)&lt;&gt;"#"),MAX($A$1:A5)+1,"")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
+      <c r="B6" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="12">
         <f>IF(AND(H7&lt;&gt;"",I7&lt;&gt;"",LEFT(H7,1)&lt;&gt;"#"),MAX($A$1:A6)+1,"")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
+      <c r="B7" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="12">
         <f>IF(AND(H8&lt;&gt;"",I8&lt;&gt;"",LEFT(H8,1)&lt;&gt;"#"),MAX($A$1:A7)+1,"")</f>
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
+      <c r="B8" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="12">
         <f>IF(AND(H9&lt;&gt;"",I9&lt;&gt;"",LEFT(H9,1)&lt;&gt;"#"),MAX($A$1:A8)+1,"")</f>
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
+      <c r="B9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="12">
         <f>IF(AND(H10&lt;&gt;"",I10&lt;&gt;"",LEFT(H10,1)&lt;&gt;"#"),MAX($A$1:A9)+1,"")</f>
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
+      <c r="B10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <f>IF(AND(H11&lt;&gt;"",I11&lt;&gt;"",LEFT(H11,1)&lt;&gt;"#"),MAX($A$1:A10)+1,"")</f>
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <f>IF(AND(H12&lt;&gt;"",I12&lt;&gt;"",LEFT(H12,1)&lt;&gt;"#"),MAX($A$1:A11)+1,"")</f>
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21" t="s">
+      <c r="B12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="12">
         <f>IF(AND(H13&lt;&gt;"",I13&lt;&gt;"",LEFT(H13,1)&lt;&gt;"#"),MAX($A$1:A12)+1,"")</f>
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21" t="s">
+      <c r="B13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="12">
         <f>IF(AND(H14&lt;&gt;"",I14&lt;&gt;"",LEFT(H14,1)&lt;&gt;"#"),MAX($A$1:A13)+1,"")</f>
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21" t="s">
+      <c r="B14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="12">
         <f>IF(AND(H15&lt;&gt;"",I15&lt;&gt;"",LEFT(H15,1)&lt;&gt;"#"),MAX($A$1:A14)+1,"")</f>
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21" t="s">
+      <c r="B15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="12">
         <f>IF(AND(H16&lt;&gt;"",I16&lt;&gt;"",LEFT(H16,1)&lt;&gt;"#"),MAX($A$1:A15)+1,"")</f>
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21" t="s">
+      <c r="B16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="12">
         <f>IF(AND(H17&lt;&gt;"",I17&lt;&gt;"",LEFT(H17,1)&lt;&gt;"#"),MAX($A$1:A16)+1,"")</f>
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21" t="s">
+      <c r="B17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="12">
         <f>IF(AND(H18&lt;&gt;"",I18&lt;&gt;"",LEFT(H18,1)&lt;&gt;"#"),MAX($A$1:A17)+1,"")</f>
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21" t="s">
+      <c r="B18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="12">
         <f>IF(AND(H19&lt;&gt;"",I19&lt;&gt;"",LEFT(H19,1)&lt;&gt;"#"),MAX($A$1:A18)+1,"")</f>
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="s">
+      <c r="B19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="12">
         <f>IF(AND(H20&lt;&gt;"",I20&lt;&gt;"",LEFT(H20,1)&lt;&gt;"#"),MAX($A$1:A19)+1,"")</f>
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21" t="s">
+      <c r="B20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="12">
         <f>IF(AND(H21&lt;&gt;"",I21&lt;&gt;"",LEFT(H21,1)&lt;&gt;"#"),MAX($A$1:A20)+1,"")</f>
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21" t="s">
+      <c r="B21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="12">
         <f>IF(AND(H22&lt;&gt;"",I22&lt;&gt;"",LEFT(H22,1)&lt;&gt;"#"),MAX($A$1:A21)+1,"")</f>
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21" t="s">
+      <c r="B22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="12">
         <f>IF(AND(H23&lt;&gt;"",I23&lt;&gt;"",LEFT(H23,1)&lt;&gt;"#"),MAX($A$1:A22)+1,"")</f>
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21" t="s">
+      <c r="B23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="12">
         <f>IF(AND(H24&lt;&gt;"",I24&lt;&gt;"",LEFT(H24,1)&lt;&gt;"#"),MAX($A$1:A23)+1,"")</f>
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21" t="s">
+      <c r="B24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="12">
         <f>IF(AND(H25&lt;&gt;"",I25&lt;&gt;"",LEFT(H25,1)&lt;&gt;"#"),MAX($A$1:A24)+1,"")</f>
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21" t="s">
+      <c r="B25" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
-        <f>IF(AND(H26&lt;&gt;"",I26&lt;&gt;"",LEFT(H26,1)&lt;&gt;"#"),MAX($A$1:A23)+1,"")</f>
+      <c r="A26" s="12">
+        <f>IF(AND(H26&lt;&gt;"",I26&lt;&gt;"",LEFT(H26,1)&lt;&gt;"#"),MAX($A$1:A25)+1,"")</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <f>IF(AND(H27&lt;&gt;"",I27&lt;&gt;"",LEFT(H27,1)&lt;&gt;"#"),MAX($A$1:A26)+1,"")</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f>IF(AND(H28&lt;&gt;"",I28&lt;&gt;"",LEFT(H28,1)&lt;&gt;"#"),MAX($A$1:A27)+1,"")</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <f>IF(AND(H29&lt;&gt;"",I29&lt;&gt;"",LEFT(H29,1)&lt;&gt;"#"),MAX($A$1:A28)+1,"")</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f>IF(AND(H30&lt;&gt;"",I30&lt;&gt;"",LEFT(H30,1)&lt;&gt;"#"),MAX($A$1:A29)+1,"")</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <f>IF(AND(H31&lt;&gt;"",I31&lt;&gt;"",LEFT(H31,1)&lt;&gt;"#"),MAX($A$1:A30)+1,"")</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <f>IF(AND(H32&lt;&gt;"",I32&lt;&gt;"",LEFT(H32,1)&lt;&gt;"#"),MAX($A$1:A31)+1,"")</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <f>IF(AND(H33&lt;&gt;"",I33&lt;&gt;"",LEFT(H33,1)&lt;&gt;"#"),MAX($A$1:A32)+1,"")</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <f>IF(AND(H34&lt;&gt;"",I34&lt;&gt;"",LEFT(H34,1)&lt;&gt;"#"),MAX($A$1:A33)+1,"")</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <f>IF(AND(H35&lt;&gt;"",I35&lt;&gt;"",LEFT(H35,1)&lt;&gt;"#"),MAX($A$1:A34)+1,"")</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <f>IF(AND(H36&lt;&gt;"",I36&lt;&gt;"",LEFT(H36,1)&lt;&gt;"#"),MAX($A$1:A35)+1,"")</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <f>IF(AND(H37&lt;&gt;"",I37&lt;&gt;"",LEFT(H37,1)&lt;&gt;"#"),MAX($A$1:A36)+1,"")</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <f>IF(AND(H38&lt;&gt;"",I38&lt;&gt;"",LEFT(H38,1)&lt;&gt;"#"),MAX($A$1:A37)+1,"")</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <f>IF(AND(H39&lt;&gt;"",I39&lt;&gt;"",LEFT(H39,1)&lt;&gt;"#"),MAX($A$1:A38)+1,"")</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <f>IF(AND(H40&lt;&gt;"",I40&lt;&gt;"",LEFT(H40,1)&lt;&gt;"#"),MAX($A$1:A39)+1,"")</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <f>IF(AND(H41&lt;&gt;"",I41&lt;&gt;"",LEFT(H41,1)&lt;&gt;"#"),MAX($A$1:A40)+1,"")</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f>IF(AND(H42&lt;&gt;"",I42&lt;&gt;"",LEFT(H42,1)&lt;&gt;"#"),MAX($A$1:A41)+1,"")</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
-        <f>IF(AND(H27&lt;&gt;"",I27&lt;&gt;"",LEFT(H27,1)&lt;&gt;"#"),MAX($A$1:A26)+1,"")</f>
-        <v>25</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
-        <f>IF(AND(H28&lt;&gt;"",I28&lt;&gt;"",LEFT(H28,1)&lt;&gt;"#"),MAX($A$1:A27)+1,"")</f>
-        <v>26</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
-        <f>IF(AND(H29&lt;&gt;"",I29&lt;&gt;"",LEFT(H29,1)&lt;&gt;"#"),MAX($A$1:A28)+1,"")</f>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <f>IF(AND(H43&lt;&gt;"",I43&lt;&gt;"",LEFT(H43,1)&lt;&gt;"#"),MAX($A$1:A42)+1,"")</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <f>IF(AND(H44&lt;&gt;"",I44&lt;&gt;"",LEFT(H44,1)&lt;&gt;"#"),MAX($A$1:A43)+1,"")</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
-        <f>IF(AND(H30&lt;&gt;"",I30&lt;&gt;"",LEFT(H30,1)&lt;&gt;"#"),MAX($A$1:A29)+1,"")</f>
-        <v>28</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
-        <f>IF(AND(H31&lt;&gt;"",I31&lt;&gt;"",LEFT(H31,1)&lt;&gt;"#"),MAX($A$1:A30)+1,"")</f>
-        <v>29</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
-        <f>IF(AND(H32&lt;&gt;"",I32&lt;&gt;"",LEFT(H32,1)&lt;&gt;"#"),MAX($A$1:A31)+1,"")</f>
-        <v>30</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
-        <f>IF(AND(H33&lt;&gt;"",I33&lt;&gt;"",LEFT(H33,1)&lt;&gt;"#"),MAX($A$1:A30)+1,"")</f>
-        <v>29</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
-        <f>IF(AND(H34&lt;&gt;"",I34&lt;&gt;"",LEFT(H34,1)&lt;&gt;"#"),MAX($A$1:A33)+1,"")</f>
-        <v>31</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="50">
-        <f>IF(AND(H35&lt;&gt;"",I35&lt;&gt;"",LEFT(H35,1)&lt;&gt;"#"),MAX($A$1:A34)+1,"")</f>
-        <v>32</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
-        <f>IF(AND(H36&lt;&gt;"",I36&lt;&gt;"",LEFT(H36,1)&lt;&gt;"#"),MAX($A$1:A35)+1,"")</f>
-        <v>33</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="50">
-        <f>IF(AND(H37&lt;&gt;"",I37&lt;&gt;"",LEFT(H37,1)&lt;&gt;"#"),MAX($A$1:A36)+1,"")</f>
-        <v>34</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="50">
-        <f>IF(AND(H38&lt;&gt;"",I38&lt;&gt;"",LEFT(H38,1)&lt;&gt;"#"),MAX($A$1:A37)+1,"")</f>
-        <v>35</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="50">
-        <f>IF(AND(H39&lt;&gt;"",I39&lt;&gt;"",LEFT(H39,1)&lt;&gt;"#"),MAX($A$1:A38)+1,"")</f>
-        <v>36</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="50">
-        <f>IF(AND(H40&lt;&gt;"",I40&lt;&gt;"",LEFT(H40,1)&lt;&gt;"#"),MAX($A$1:A37)+1,"")</f>
-        <v>35</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
-        <f>IF(AND(H41&lt;&gt;"",I41&lt;&gt;"",LEFT(H41,1)&lt;&gt;"#"),MAX($A$1:A40)+1,"")</f>
-        <v>37</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
-        <f>IF(AND(H42&lt;&gt;"",I42&lt;&gt;"",LEFT(H42,1)&lt;&gt;"#"),MAX($A$1:A41)+1,"")</f>
-        <v>38</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49" t="s">
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <f>IF(AND(H45&lt;&gt;"",I45&lt;&gt;"",LEFT(H45,1)&lt;&gt;"#"),MAX($A$1:A44)+1,"")</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
-        <f>IF(AND(H43&lt;&gt;"",I43&lt;&gt;"",LEFT(H43,1)&lt;&gt;"#"),MAX($A$1:A42)+1,"")</f>
-        <v>39</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49" t="s">
+      <c r="H45" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f>IF(AND(H46&lt;&gt;"",I46&lt;&gt;"",LEFT(H46,1)&lt;&gt;"#"),MAX($A$1:A45)+1,"")</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <f>IF(AND(H44&lt;&gt;"",I44&lt;&gt;"",LEFT(H44,1)&lt;&gt;"#"),MAX($A$1:A43)+1,"")</f>
-        <v>40</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
-        <f>IF(AND(H45&lt;&gt;"",I45&lt;&gt;"",LEFT(H45,1)&lt;&gt;"#"),MAX($A$1:A44)+1,"")</f>
-        <v>41</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
-        <f>IF(AND(H46&lt;&gt;"",I46&lt;&gt;"",LEFT(H46,1)&lt;&gt;"#"),MAX($A$1:A43)+1,"")</f>
-        <v>40</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="57" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2325,7 +2307,7 @@
     <protectedRange password="DDDF" sqref="A2:XFD47" name="courseadmin_1" securityDescriptor="O:WDG:WDD:(A;;CC;;;S-1-5-21-1065746463-197919211-1947940980-1133)(A;;CC;;;S-1-5-21-1065746463-197919211-1947940980-1272)(A;;CC;;;S-1-5-21-1065746463-197919211-1947940980-1303)(A;;CC;;;S-1-5-21-1065746463-197919211-1947940980-1127)"/>
   </protectedRanges>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold Italic"&amp;14&amp;K04-049&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;D &amp;T&amp;C&amp;F &amp;A&amp;R&amp;P of &amp;N</oddFooter>

--- a/workbooks/QAtestCases.xlsx
+++ b/workbooks/QAtestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="testCases" sheetId="12" r:id="rId1"/>
@@ -407,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +431,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,14 +712,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -740,12 +745,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -759,12 +758,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -783,12 +776,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -805,6 +792,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -1119,236 +1130,236 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="4.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="145.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="145.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="98.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="98.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <f>IF(AND(H2&lt;&gt;"",I2&lt;&gt;"",LEFT(H2,1)&lt;&gt;"#"),MAX($A$1:A1)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="27">
         <f>IF(AND(H3&lt;&gt;"",I3&lt;&gt;"",LEFT(H3,1)&lt;&gt;"#"),MAX($A$1:A2)+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="27">
         <f>IF(AND(H4&lt;&gt;"",I4&lt;&gt;"",LEFT(H4,1)&lt;&gt;"#"),MAX($A$1:A3)+1,"")</f>
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="27">
         <f>IF(AND(H5&lt;&gt;"",I5&lt;&gt;"",LEFT(H5,1)&lt;&gt;"#"),MAX($A$1:A4)+1,"")</f>
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="27">
         <f>IF(AND(H6&lt;&gt;"",I6&lt;&gt;"",LEFT(H6,1)&lt;&gt;"#"),MAX($A$1:A5)+1,"")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="27">
         <f>IF(AND(H7&lt;&gt;"",I7&lt;&gt;"",LEFT(H7,1)&lt;&gt;"#"),MAX($A$1:A6)+1,"")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="27">
         <f>IF(AND(H8&lt;&gt;"",I8&lt;&gt;"",LEFT(H8,1)&lt;&gt;"#"),MAX($A$1:A7)+1,"")</f>
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="27">
         <f>IF(AND(H9&lt;&gt;"",I9&lt;&gt;"",LEFT(H9,1)&lt;&gt;"#"),MAX($A$1:A8)+1,"")</f>
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1369,9 +1380,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1381,17 +1393,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1402,6 +1414,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1417,7 +1430,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B1" t="s">
@@ -1431,7 +1444,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>108</v>
       </c>
       <c r="B2" t="s">
@@ -1451,6 +1464,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1463,22 +1477,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1492,6 +1506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1600,6 +1615,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,7 +1631,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B1" t="s">
@@ -1629,7 +1645,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B2" t="s">
@@ -1643,7 +1659,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B3" t="s">
@@ -1657,7 +1673,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -1694,6 +1710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1760,6 +1777,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1789,7 +1807,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
       <c r="B2" t="s">
@@ -1803,7 +1821,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B3" t="s">
@@ -1840,6 +1858,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,6 +1908,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1904,7 +1924,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
@@ -1924,6 +1944,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,6 +1970,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1961,42 +1983,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>72</v>
       </c>
     </row>
